--- a/Data/Plate maps plates1 to 4.xlsx
+++ b/Data/Plate maps plates1 to 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahlapidus/Documents/Malawi training docs/Data sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020439AE-61C7-5441-AFAD-244DEE6A0F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C714DF-F136-EB43-9674-6D1F4913CB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30900" yWindow="320" windowWidth="28640" windowHeight="16400" activeTab="2" xr2:uid="{5EEDDEAA-685C-084F-82B6-B57D101196A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35400" windowHeight="19640" activeTab="3" xr2:uid="{5EEDDEAA-685C-084F-82B6-B57D101196A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate map1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="106">
   <si>
     <t>A</t>
   </si>
@@ -257,60 +257,6 @@
     <t>Unknown64</t>
   </si>
   <si>
-    <t>Unknown65</t>
-  </si>
-  <si>
-    <t>Unknown66</t>
-  </si>
-  <si>
-    <t>Unknown67</t>
-  </si>
-  <si>
-    <t>Unknown68</t>
-  </si>
-  <si>
-    <t>Unknown69</t>
-  </si>
-  <si>
-    <t>Unknown70</t>
-  </si>
-  <si>
-    <t>Unknown71</t>
-  </si>
-  <si>
-    <t>Unknown72</t>
-  </si>
-  <si>
-    <t>Unknown73</t>
-  </si>
-  <si>
-    <t>Unknown74</t>
-  </si>
-  <si>
-    <t>Unknown75</t>
-  </si>
-  <si>
-    <t>Unknown76</t>
-  </si>
-  <si>
-    <t>Unknown77</t>
-  </si>
-  <si>
-    <t>Unknown78</t>
-  </si>
-  <si>
-    <t>Unknown79</t>
-  </si>
-  <si>
-    <t>Unknown80</t>
-  </si>
-  <si>
-    <t>Unknown81</t>
-  </si>
-  <si>
-    <t>Unknown82</t>
-  </si>
-  <si>
     <t>POS1</t>
   </si>
   <si>
@@ -389,7 +335,28 @@
     <t>Std Curve wmev 1:5.9</t>
   </si>
   <si>
-    <t>Std Curve wmev 1:2.9</t>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
   </si>
 </sst>
 </file>
@@ -459,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,11 +435,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,20 +784,22 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -896,16 +871,16 @@
       <c r="I3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -937,16 +912,16 @@
       <c r="I4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="J4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -978,17 +953,17 @@
       <c r="I5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="J5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>98</v>
+      <c r="M5" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1019,17 +994,17 @@
       <c r="I6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="J6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>99</v>
+      <c r="M6" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1060,17 +1035,17 @@
       <c r="I7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="J7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>100</v>
+      <c r="M7" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1101,17 +1076,17 @@
       <c r="I8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="J8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>101</v>
+      <c r="M8" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1142,17 +1117,17 @@
       <c r="I9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="J9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>102</v>
+      <c r="M9" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1183,17 +1158,17 @@
       <c r="I10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="J10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>103</v>
+      <c r="M10" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1201,7 +1176,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1247,40 +1222,40 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>17</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>25</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>33</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>41</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>49</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>57</v>
       </c>
-      <c r="J14" s="3">
-        <v>65</v>
-      </c>
-      <c r="K14" s="3">
-        <v>73</v>
-      </c>
-      <c r="L14" s="3">
-        <v>81</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="J14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1288,40 +1263,40 @@
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>18</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>26</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>34</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>42</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>50</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="6">
         <v>58</v>
       </c>
-      <c r="J15" s="3">
-        <v>66</v>
-      </c>
-      <c r="K15" s="3">
-        <v>74</v>
-      </c>
-      <c r="L15" s="3">
-        <v>82</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="J15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1329,246 +1304,246 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>11</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>19</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="6">
         <v>27</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="6">
         <v>35</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="6">
         <v>43</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>51</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="6">
         <v>59</v>
       </c>
-      <c r="J16" s="3">
-        <v>67</v>
-      </c>
-      <c r="K16" s="3">
-        <v>75</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="J16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>98</v>
+      <c r="M16" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>20</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
         <v>28</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>36</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="6">
         <v>44</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>52</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="6">
         <v>60</v>
       </c>
-      <c r="J17" s="3">
-        <v>68</v>
-      </c>
-      <c r="K17" s="3">
-        <v>76</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="J17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>99</v>
+      <c r="M17" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <v>21</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="6">
         <v>29</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="6">
         <v>37</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="6">
         <v>45</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
         <v>53</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="6">
         <v>61</v>
       </c>
-      <c r="J18" s="3">
-        <v>69</v>
-      </c>
-      <c r="K18" s="3">
-        <v>77</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="J18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>100</v>
+      <c r="M18" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>6</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>14</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>22</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>30</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="6">
         <v>38</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="6">
         <v>46</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
         <v>54</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="6">
         <v>62</v>
       </c>
-      <c r="J19" s="3">
-        <v>70</v>
-      </c>
-      <c r="K19" s="3">
-        <v>78</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="J19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>101</v>
+      <c r="M19" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>7</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>23</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <v>31</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <v>39</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="6">
         <v>47</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
         <v>55</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="6">
         <v>63</v>
       </c>
-      <c r="J20" s="3">
-        <v>71</v>
-      </c>
-      <c r="K20" s="3">
-        <v>79</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="J20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>102</v>
+      <c r="M20" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>8</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <v>24</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="6">
         <v>32</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="6">
         <v>40</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="6">
         <v>48</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="6">
         <v>56</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="6">
         <v>64</v>
       </c>
-      <c r="J21" s="3">
-        <v>72</v>
-      </c>
-      <c r="K21" s="3">
-        <v>80</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="J21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>103</v>
+      <c r="M21" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1581,17 +1556,23 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1637,40 +1618,40 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1678,40 +1659,40 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="J4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1719,255 +1700,279 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>98</v>
+      <c r="M5" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="J6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>99</v>
+      <c r="M6" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>100</v>
+      <c r="M7" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="J8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>101</v>
+      <c r="M8" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="J9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>102</v>
+      <c r="M9" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="J10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>103</v>
+      <c r="M10" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -2012,40 +2017,40 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>83</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>91</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>99</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <v>107</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="7">
         <v>115</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="7">
         <v>123</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
         <v>131</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="7">
         <v>139</v>
       </c>
-      <c r="J14" s="3">
-        <v>147</v>
-      </c>
-      <c r="K14" s="3">
-        <v>155</v>
-      </c>
-      <c r="L14" s="3">
-        <v>163</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2053,40 +2058,40 @@
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>84</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>92</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>108</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>116</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="7">
         <v>124</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>132</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>140</v>
       </c>
-      <c r="J15" s="3">
-        <v>148</v>
-      </c>
-      <c r="K15" s="3">
-        <v>156</v>
-      </c>
-      <c r="L15" s="3">
-        <v>164</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2094,246 +2099,246 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>85</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>93</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>101</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>109</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="7">
         <v>117</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="7">
         <v>125</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="7">
         <v>133</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>141</v>
       </c>
-      <c r="J16" s="3">
-        <v>149</v>
-      </c>
-      <c r="K16" s="3">
-        <v>157</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>98</v>
+      <c r="M16" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <v>86</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>94</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>102</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>110</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="7">
         <v>118</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="7">
         <v>126</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="7">
         <v>134</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <v>142</v>
       </c>
-      <c r="J17" s="3">
-        <v>150</v>
-      </c>
-      <c r="K17" s="3">
-        <v>158</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>99</v>
+      <c r="M17" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="7">
         <v>87</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>95</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>103</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
         <v>111</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="7">
         <v>119</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="7">
         <v>127</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="7">
         <v>135</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="7">
         <v>143</v>
       </c>
-      <c r="J18" s="3">
-        <v>151</v>
-      </c>
-      <c r="K18" s="3">
-        <v>159</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="J18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>100</v>
+      <c r="M18" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>88</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>96</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>104</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="7">
         <v>112</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="7">
         <v>120</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="7">
         <v>128</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="7">
         <v>136</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="7">
         <v>144</v>
       </c>
-      <c r="J19" s="3">
-        <v>152</v>
-      </c>
-      <c r="K19" s="3">
-        <v>160</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="J19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>101</v>
+      <c r="M19" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>89</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>97</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>105</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="7">
         <v>113</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="7">
         <v>121</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="7">
         <v>129</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="7">
         <v>137</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="7">
         <v>145</v>
       </c>
-      <c r="J20" s="3">
-        <v>153</v>
-      </c>
-      <c r="K20" s="3">
-        <v>161</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>102</v>
+      <c r="M20" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <v>90</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>98</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>106</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
         <v>114</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="7">
         <v>122</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="7">
         <v>130</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="7">
         <v>138</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="7">
         <v>146</v>
       </c>
-      <c r="J21" s="3">
-        <v>154</v>
-      </c>
-      <c r="K21" s="3">
-        <v>162</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="J21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>103</v>
+      <c r="M21" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2345,20 +2350,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB89DCEF-E3AD-A345-9928-F5AD18EA5416}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2404,334 +2412,360 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>115</v>
+      <c r="J3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>116</v>
+      <c r="J4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="J6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>91</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>92</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="J8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>93</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="J9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="J10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="M10" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>104</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -2776,328 +2810,328 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>244</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>252</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>260</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <v>268</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="7">
         <v>276</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="7">
         <v>284</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
         <v>292</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="7">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>308</v>
-      </c>
-      <c r="K14" s="3">
-        <v>316</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>115</v>
+      <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>245</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>253</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>261</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>269</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>277</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="7">
         <v>285</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>293</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>301</v>
       </c>
-      <c r="J15" s="3">
-        <v>309</v>
-      </c>
-      <c r="K15" s="3">
-        <v>317</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>116</v>
+      <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>246</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>254</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>262</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>270</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="7">
         <v>278</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="7">
         <v>286</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="7">
         <v>294</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>302</v>
       </c>
-      <c r="J16" s="3">
-        <v>310</v>
-      </c>
-      <c r="K16" s="3">
-        <v>318</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <v>247</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>255</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>263</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>271</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="7">
         <v>279</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="7">
         <v>287</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="7">
         <v>295</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <v>303</v>
       </c>
-      <c r="J17" s="3">
-        <v>311</v>
-      </c>
-      <c r="K17" s="3">
-        <v>319</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>91</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="7">
         <v>248</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>256</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>264</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
         <v>272</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="7">
         <v>280</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="7">
         <v>288</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="7">
         <v>296</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="7">
         <v>304</v>
       </c>
-      <c r="J18" s="3">
-        <v>312</v>
-      </c>
-      <c r="K18" s="3">
-        <v>320</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="3" t="s">
+      <c r="J18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>92</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>249</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>257</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>265</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="7">
         <v>273</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="7">
         <v>281</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="7">
         <v>289</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="7">
         <v>297</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="7">
         <v>305</v>
       </c>
-      <c r="J19" s="3">
-        <v>313</v>
-      </c>
-      <c r="K19" s="3">
-        <v>321</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="J19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>250</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>258</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>266</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="7">
         <v>274</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="7">
         <v>282</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="7">
         <v>290</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="7">
         <v>298</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="7">
         <v>306</v>
       </c>
-      <c r="J20" s="3">
-        <v>314</v>
-      </c>
-      <c r="K20" s="3">
-        <v>322</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="3" t="s">
+      <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <v>251</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>259</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>267</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
         <v>275</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="7">
         <v>283</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="7">
         <v>291</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="7">
         <v>299</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="7">
         <v>307</v>
       </c>
-      <c r="J21" s="3">
-        <v>315</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="J21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>95</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3109,20 +3143,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C298D930-BE36-594F-A197-99588490FD4B}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -3168,333 +3205,333 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>115</v>
+      <c r="J3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>116</v>
+      <c r="J4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="J6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>91</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>92</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="J8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>93</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="J9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="J10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>95</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -3540,328 +3577,328 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>165</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>173</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>181</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <v>189</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="7">
         <v>197</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="7">
         <v>205</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
         <v>213</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="7">
         <v>221</v>
       </c>
-      <c r="J14" s="3">
-        <v>229</v>
-      </c>
-      <c r="K14" s="3">
-        <v>237</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>115</v>
+      <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>166</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>174</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>182</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>190</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>198</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="7">
         <v>206</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>214</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>222</v>
       </c>
-      <c r="J15" s="3">
-        <v>230</v>
-      </c>
-      <c r="K15" s="3">
-        <v>238</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>116</v>
+      <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>167</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>175</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>183</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>191</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="7">
         <v>199</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="7">
         <v>207</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="7">
         <v>215</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>223</v>
       </c>
-      <c r="J16" s="3">
-        <v>231</v>
-      </c>
-      <c r="K16" s="3">
-        <v>239</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <v>168</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>176</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>184</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>192</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="7">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="7">
         <v>208</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="7">
         <v>216</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <v>224</v>
       </c>
-      <c r="J17" s="3">
-        <v>232</v>
-      </c>
-      <c r="K17" s="3">
-        <v>240</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>91</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="7">
         <v>169</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>177</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>185</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
         <v>193</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="7">
         <v>201</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="7">
         <v>209</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="7">
         <v>217</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="7">
         <v>225</v>
       </c>
-      <c r="J18" s="3">
-        <v>233</v>
-      </c>
-      <c r="K18" s="3">
-        <v>241</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="3" t="s">
+      <c r="J18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>92</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>170</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>178</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>186</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="7">
         <v>194</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="7">
         <v>202</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="7">
         <v>210</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="7">
         <v>218</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="7">
         <v>226</v>
       </c>
-      <c r="J19" s="3">
-        <v>234</v>
-      </c>
-      <c r="K19" s="3">
-        <v>242</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="J19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>171</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>179</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>187</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="7">
         <v>195</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="7">
         <v>203</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="7">
         <v>211</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="7">
         <v>219</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="7">
         <v>227</v>
       </c>
-      <c r="J20" s="3">
-        <v>235</v>
-      </c>
-      <c r="K20" s="3">
-        <v>243</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="3" t="s">
+      <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <v>172</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>180</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>188</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
         <v>196</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="7">
         <v>204</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="7">
         <v>212</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="7">
         <v>220</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="7">
         <v>228</v>
       </c>
-      <c r="J21" s="3">
-        <v>236</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="J21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>95</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
